--- a/biology/Zoologie/Fukuivenator/Fukuivenator.xlsx
+++ b/biology/Zoologie/Fukuivenator/Fukuivenator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fukuivenator paradoxus
 Fukuivenator ( « le chasseur de la préfecture de Fukui » ) est un genre éteint de dinosaures théropodes maniraptoriens du Crétacé inférieur. 
-L'unique espèce, Fukuivenator paradoxus, est connue d'un spécimen (FPDM-V8461) découvert au Japon dans la formation géologique de Kitadani[1].
+L'unique espèce, Fukuivenator paradoxus, est connue d'un spécimen (FPDM-V8461) découvert au Japon dans la formation géologique de Kitadani.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été découvert dans la même carrière que Fukuisaurus tetoriensis, mais dans un niveau stratigraphique un peu plus récent, daté du Barrémien supérieur à l'Aptien, soit environ entre 127 et 115 Ma (millions d'années)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été découvert dans la même carrière que Fukuisaurus tetoriensis, mais dans un niveau stratigraphique un peu plus récent, daté du Barrémien supérieur à l'Aptien, soit environ entre 127 et 115 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fukuivenator a une longueur estimée à 2,45 mètres, dont 0,23 mètre pour le crâne. La masse de l'animal est estimée à 25 kg[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fukuivenator a une longueur estimée à 2,45 mètres, dont 0,23 mètre pour le crâne. La masse de l'animal est estimée à 25 kg.
 </t>
         </is>
       </c>
